--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>keterangan</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>barcode</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -468,11 +473,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bantal Iskra</t>
+          <t>AEON 120x20</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50000</v>
+        <v>620000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -484,6 +489,7 @@
           <t>Bantal putih empuk</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -493,11 +499,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kasur Lipat Iskra 6cm</t>
+          <t>AEON 180x20</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>250000</v>
+        <v>889000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,6 +515,7 @@
           <t>Ringan, mudah dibawa</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -518,11 +525,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kasur Lipat Iskra 7cm</t>
+          <t>Affinity Bianco 180x35</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>450000</v>
+        <v>2610000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -534,6 +541,7 @@
           <t>Bantal putih empuk</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -543,11 +551,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kasur Lipat Iskra 6cm</t>
+          <t>Airy 90x20</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>650000</v>
+        <v>508000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -559,6 +567,7 @@
           <t>Ringan, mudah dibawa</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -568,11 +577,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kasur Lipat Iskra 7cm</t>
+          <t>America D20 160x20</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>850000</v>
+        <v>1230000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -584,6 +593,7 @@
           <t>Bantal putih empuk</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,11 +603,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kasur Lipat Iskra 6cm</t>
+          <t>America D20 180x20</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1050000</v>
+        <v>1385000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -609,6 +619,7 @@
           <t>Ringan, mudah dibawa</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -618,11 +629,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kasur Lipat Iskra 7cm</t>
+          <t>America D24 160x20</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1250000</v>
+        <v>1585000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -634,6 +645,7 @@
           <t>Bantal putih empuk</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -643,11 +655,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kasur Lipat Iskra 6cm</t>
+          <t>America D24 180x20</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1450000</v>
+        <v>1765000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -659,6 +671,7 @@
           <t>Ringan, mudah dibawa</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -668,11 +681,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kasur Lipat Iskra 7cm</t>
+          <t>Aurora 140x30</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1650000</v>
+        <v>1200000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -684,6 +697,1177 @@
           <t>Bantal putih empuk</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9069012345770</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aurora 160x30</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9077654321090</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aurora 180x30</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1485000</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>9086296296410</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ayana SB 160x35</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>9094938271730</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ayana SB 180x35</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>9103580247050</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Black Foam Jacquard 160x20</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>757500</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>9112222222370</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Black Foam Jacquard 180x20</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>845000</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>9120864197690</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Black Foam Katun 120x14</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>415000</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>9129506173010</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Black Foam Katun 120x20</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>556000</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>9138148148330</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Black Foam Katun 140x20</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>644000</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>9146790123650</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Black Foam Katun 100x14</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>350000</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>9155432098970</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Central Pegasus 120x28</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>895000</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>9164074074290</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Central Pegasus 160x28</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>9172716049610</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Central Pegasus 180x28</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>9181358024930</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Emily SB 120x33</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>9190000000250</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Emily SB 160x33</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>9198641975570</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Emily SB 180x33</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>9207283950890</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Imperial D27 Lis 100x19</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>590000</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>9215925926210</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Imperial D16 120x30</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>936000</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>9224567901530</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Imperial D16 160x30</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1240000</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>9233209876850</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>INOAC D23 120x20</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>915000</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>9241851852170</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>INOAC D23 140x20</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1045000</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>9250493827490</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>INOAC D23 160x20</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1230000</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>9259135802810</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>INOAC D23 180x20</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>9267777778130</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lostus SB 160x27</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1245000</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>9276419753450</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lostus SB 180x27</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1365000</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>9285061728770</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Olympedic SB 160x32</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>9293703704090</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Olympedic SB 180x32</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2694000</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>9302345679410</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Olympic Super Delux 180x25</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1265000</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>9310987654730</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Platinum D22 100x30</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>738000</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>9319629630050</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Platinum D22 160x20</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>906000</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>9328271605370</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Polar Sandwich 120x20</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>885000</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>9336913580690</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Rebonded R40 140x18</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>742000</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>9345555556010</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Rebonded R40 160x14</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>750000</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>9354197531330</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rebonded R40 120x10</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>353000</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>9362839506650</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Rebonded R40 140x18</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>742000</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>9371481481970</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Royal Medicare 120x20</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>825000</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>9380123457290</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Serenity SB 160x34</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>9388765432610</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sleep R50 140x20</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>999000</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>9397407407930</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sleep R50 160x20</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>9406049383250</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sleep R50 180x20</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1299000</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>9414691358570</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Sleep R80 160x20</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1509000</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>9423333333890</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sleep R80 180x20</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1687000</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>9431975309210</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sleep Topper 90x8</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>495000</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>9440617284530</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Sleep Topper 120x8</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>610000</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>9449259259850</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Sleep Topper 180x8</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>862000</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>hpp</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>profit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>harga_25</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>harga</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sumber</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>keterangan</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>foto</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>keterangan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>barcode</t>
         </is>
@@ -479,17 +499,27 @@
       <c r="C2" t="n">
         <v>620000</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Bantal putih empuk</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>775000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>800000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,17 +535,27 @@
       <c r="C3" t="n">
         <v>889000</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ringan, mudah dibawa</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>222250</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1111250</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1165000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -531,17 +571,27 @@
       <c r="C4" t="n">
         <v>2610000</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Bantal putih empuk</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>652500</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3262500</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -557,17 +607,27 @@
       <c r="C5" t="n">
         <v>508000</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ringan, mudah dibawa</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>127000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>635000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>685000</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -583,17 +643,27 @@
       <c r="C6" t="n">
         <v>1230000</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Bantal putih empuk</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>307500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1537500</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1525000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,17 +679,27 @@
       <c r="C7" t="n">
         <v>1385000</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ringan, mudah dibawa</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>346250</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1731250</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1725000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -635,17 +715,27 @@
       <c r="C8" t="n">
         <v>1585000</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Bantal putih empuk</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>396250</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1981250</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1975000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -661,17 +751,27 @@
       <c r="C9" t="n">
         <v>1765000</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Ringan, mudah dibawa</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>441250</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2206250</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -687,17 +787,27 @@
       <c r="C10" t="n">
         <v>1200000</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Bantal putih empuk</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -713,17 +823,27 @@
       <c r="C11" t="n">
         <v>1340000</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>335000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1675000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1675000</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,17 +859,27 @@
       <c r="C12" t="n">
         <v>1485000</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>371250</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1856250</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -765,17 +895,27 @@
       <c r="C13" t="n">
         <v>2000000</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -791,17 +931,27 @@
       <c r="C14" t="n">
         <v>2400000</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -817,17 +967,27 @@
       <c r="C15" t="n">
         <v>757500</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>189375</v>
+      </c>
+      <c r="E15" t="n">
+        <v>946875</v>
+      </c>
+      <c r="F15" t="n">
+        <v>995000</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -843,17 +1003,27 @@
       <c r="C16" t="n">
         <v>845000</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>211250</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1056250</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -869,17 +1039,27 @@
       <c r="C17" t="n">
         <v>415000</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>103750</v>
+      </c>
+      <c r="E17" t="n">
+        <v>518750</v>
+      </c>
+      <c r="F17" t="n">
+        <v>570000</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -895,17 +1075,27 @@
       <c r="C18" t="n">
         <v>556000</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>139000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>695000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>750000</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -921,17 +1111,27 @@
       <c r="C19" t="n">
         <v>644000</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>161000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>805000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>855000</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -947,17 +1147,27 @@
       <c r="C20" t="n">
         <v>350000</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>87500</v>
+      </c>
+      <c r="E20" t="n">
+        <v>437500</v>
+      </c>
+      <c r="F20" t="n">
+        <v>475000</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -973,17 +1183,27 @@
       <c r="C21" t="n">
         <v>895000</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>223750</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1118750</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -999,17 +1219,27 @@
       <c r="C22" t="n">
         <v>1150000</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>287500</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1437500</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1025,17 +1255,27 @@
       <c r="C23" t="n">
         <v>1290000</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>322500</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1612500</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1615000</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1051,17 +1291,27 @@
       <c r="C24" t="n">
         <v>1150000</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>287500</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1437500</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1485000</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Olympic</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1077,17 +1327,27 @@
       <c r="C25" t="n">
         <v>1400000</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Olympic</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1103,17 +1363,27 @@
       <c r="C26" t="n">
         <v>1550000</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>387500</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1937500</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1925000</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Olympic</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1129,17 +1399,27 @@
       <c r="C27" t="n">
         <v>590000</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>147500</v>
+      </c>
+      <c r="E27" t="n">
+        <v>737500</v>
+      </c>
+      <c r="F27" t="n">
+        <v>785000</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Atamira</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1155,17 +1435,27 @@
       <c r="C28" t="n">
         <v>936000</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>234000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1225000</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Atamira</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1181,17 +1471,27 @@
       <c r="C29" t="n">
         <v>1240000</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>310000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Atamira</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1207,17 +1507,27 @@
       <c r="C30" t="n">
         <v>915000</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>228750</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1143750</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1175000</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1233,17 +1543,27 @@
       <c r="C31" t="n">
         <v>1045000</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>261250</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1306250</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1259,17 +1579,27 @@
       <c r="C32" t="n">
         <v>1230000</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>307500</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1537500</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1285,17 +1615,27 @@
       <c r="C33" t="n">
         <v>1340000</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>335000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1675000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1675000</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1311,17 +1651,27 @@
       <c r="C34" t="n">
         <v>1245000</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>311250</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1556250</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1575000</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Olympic</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1337,17 +1687,27 @@
       <c r="C35" t="n">
         <v>1365000</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>341250</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1706250</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1363,17 +1723,27 @@
       <c r="C36" t="n">
         <v>2430000</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>607500</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3037500</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Olympic</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1389,17 +1759,27 @@
       <c r="C37" t="n">
         <v>2694000</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>673500</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3367500</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3250000</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Olympic</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1415,17 +1795,27 @@
       <c r="C38" t="n">
         <v>1265000</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>316250</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1581250</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1435,23 +1825,33 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Platinum D22 100x30</t>
+          <t>Platinum D22 100x25</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>738000</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>184500</v>
+      </c>
+      <c r="E39" t="n">
+        <v>922500</v>
+      </c>
+      <c r="F39" t="n">
+        <v>975000</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Atamira</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1467,17 +1867,27 @@
       <c r="C40" t="n">
         <v>906000</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>226500</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1132500</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Atamira</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1493,17 +1903,27 @@
       <c r="C41" t="n">
         <v>885000</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>221250</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1106250</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Olympic</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1519,17 +1939,27 @@
       <c r="C42" t="n">
         <v>742000</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>185500</v>
+      </c>
+      <c r="E42" t="n">
+        <v>927500</v>
+      </c>
+      <c r="F42" t="n">
+        <v>980000</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1545,17 +1975,27 @@
       <c r="C43" t="n">
         <v>750000</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>187500</v>
+      </c>
+      <c r="E43" t="n">
+        <v>937500</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1571,17 +2011,27 @@
       <c r="C44" t="n">
         <v>353000</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>88250</v>
+      </c>
+      <c r="E44" t="n">
+        <v>441250</v>
+      </c>
+      <c r="F44" t="n">
+        <v>525000</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1597,17 +2047,27 @@
       <c r="C45" t="n">
         <v>742000</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>185500</v>
+      </c>
+      <c r="E45" t="n">
+        <v>927500</v>
+      </c>
+      <c r="F45" t="n">
+        <v>980000</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1623,17 +2083,27 @@
       <c r="C46" t="n">
         <v>825000</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>206250</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1031250</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1025000</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CV Mantul</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1649,17 +2119,27 @@
       <c r="C47" t="n">
         <v>1700000</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>425000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2125000</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Olympic</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1675,17 +2155,27 @@
       <c r="C48" t="n">
         <v>999000</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>249750</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1248750</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1701,17 +2191,27 @@
       <c r="C49" t="n">
         <v>1099000</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>274750</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1373750</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1727,17 +2227,27 @@
       <c r="C50" t="n">
         <v>1299000</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>324750</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1623750</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1753,17 +2263,27 @@
       <c r="C51" t="n">
         <v>1509000</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>377250</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1886250</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1779,17 +2299,27 @@
       <c r="C52" t="n">
         <v>1687000</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>421750</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2108750</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1805,17 +2335,27 @@
       <c r="C53" t="n">
         <v>495000</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>123750</v>
+      </c>
+      <c r="E53" t="n">
+        <v>618750</v>
+      </c>
+      <c r="F53" t="n">
+        <v>650000</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1831,17 +2371,27 @@
       <c r="C54" t="n">
         <v>610000</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>152500</v>
+      </c>
+      <c r="E54" t="n">
+        <v>762500</v>
+      </c>
+      <c r="F54" t="n">
+        <v>800000</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1857,17 +2407,27 @@
       <c r="C55" t="n">
         <v>862000</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>215500</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1077500</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1125000</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
